--- a/data/input/Scenario_Component_Behavior.xlsx
+++ b/data/input/Scenario_Component_Behavior.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Documents\code\3E\Flex\data\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D82B31-974D-4002-A78C-DC23B6D27C47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="24900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="24900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Behavior" sheetId="1" r:id="rId1"/>
@@ -75,8 +76,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -112,7 +113,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -128,24 +129,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O2" totalsRowShown="0">
-  <autoFilter ref="A1:O2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:O2" totalsRowShown="0">
+  <autoFilter ref="A1:O2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="ID_Behavior"/>
-    <tableColumn id="2" name="id_people_at_home_profile"/>
-    <tableColumn id="3" name="target_temperature_at_home_max"/>
-    <tableColumn id="4" name="target_temperature_at_home_min"/>
-    <tableColumn id="5" name="target_temperature_not_at_home_max"/>
-    <tableColumn id="6" name="target_temperature_not_at_home_min"/>
-    <tableColumn id="7" name="temperature_unit"/>
-    <tableColumn id="8" name="id_hot_water_demand_profile"/>
-    <tableColumn id="9" name="hot_water_demand_annual"/>
-    <tableColumn id="10" name="hot_water_demand_unit"/>
-    <tableColumn id="11" name="id_appliance_electricity_demand_profile"/>
-    <tableColumn id="12" name="appliance_electricity_demand_annual"/>
-    <tableColumn id="13" name="appliance_electricity_demand_unit"/>
-    <tableColumn id="14" name="id_vehicle_at_home_profile"/>
-    <tableColumn id="15" name="id_vehicle_distance_profile"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID_Behavior"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_people_at_home_profile"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="target_temperature_at_home_max"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="target_temperature_at_home_min"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="target_temperature_not_at_home_max"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="target_temperature_not_at_home_min"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="temperature_unit"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="id_hot_water_demand_profile"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="hot_water_demand_annual"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="hot_water_demand_unit"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="id_appliance_electricity_demand_profile"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="appliance_electricity_demand_annual"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="appliance_electricity_demand_unit"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="id_vehicle_at_home_profile"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="id_vehicle_distance_profile"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -413,14 +414,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
@@ -439,7 +440,7 @@
     <col min="15" max="15" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +487,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -512,7 +513,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>2500000</v>
+        <v>2700</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
@@ -521,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>4000000</v>
+        <v>1000</v>
       </c>
       <c r="M2" t="s">
         <v>10</v>

--- a/data/input/Scenario_Component_Behavior.xlsx
+++ b/data/input/Scenario_Component_Behavior.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D82B31-974D-4002-A78C-DC23B6D27C47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02183239-29A6-4D11-81D1-349044C73F39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="24900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,7 +418,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -513,7 +513,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>2700</v>
+        <v>2700000</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1000</v>
+        <v>3000000</v>
       </c>
       <c r="M2" t="s">
         <v>10</v>

--- a/data/input/Scenario_Component_Behavior.xlsx
+++ b/data/input/Scenario_Component_Behavior.xlsx
@@ -1,30 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02183239-29A6-4D11-81D1-349044C73F39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="24900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30240" windowHeight="14660"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Behavior" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>ID_Behavior</t>
   </si>
   <si>
+    <t>id_people_at_home_profile</t>
+  </si>
+  <si>
     <t>target_temperature_at_home_max</t>
   </si>
   <si>
@@ -37,66 +34,407 @@
     <t>target_temperature_not_at_home_min</t>
   </si>
   <si>
+    <t>temperature_unit</t>
+  </si>
+  <si>
+    <t>id_hot_water_demand_profile</t>
+  </si>
+  <si>
     <t>hot_water_demand_annual</t>
   </si>
   <si>
     <t>hot_water_demand_unit</t>
   </si>
   <si>
+    <t>id_appliance_electricity_demand_profile</t>
+  </si>
+  <si>
     <t>appliance_electricity_demand_annual</t>
   </si>
   <si>
     <t>appliance_electricity_demand_unit</t>
   </si>
   <si>
+    <t>id_vehicle_at_home_profile</t>
+  </si>
+  <si>
+    <t>id_vehicle_distance_profile</t>
+  </si>
+  <si>
     <t>°C</t>
   </si>
   <si>
     <t>Wh</t>
-  </si>
-  <si>
-    <t>id_hot_water_demand_profile</t>
-  </si>
-  <si>
-    <t>id_people_at_home_profile</t>
-  </si>
-  <si>
-    <t>id_appliance_electricity_demand_profile</t>
-  </si>
-  <si>
-    <t>temperature_unit</t>
-  </si>
-  <si>
-    <t>id_vehicle_at_home_profile</t>
-  </si>
-  <si>
-    <t>id_vehicle_distance_profile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -104,49 +442,335 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:O2" totalsRowShown="0">
-  <autoFilter ref="A1:O2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O2" totalsRowShown="0">
+  <autoFilter ref="A1:O2"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID_Behavior"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_people_at_home_profile"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="target_temperature_at_home_max"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="target_temperature_at_home_min"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="target_temperature_not_at_home_max"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="target_temperature_not_at_home_min"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="temperature_unit"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="id_hot_water_demand_profile"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="hot_water_demand_annual"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="hot_water_demand_unit"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="id_appliance_electricity_demand_profile"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="appliance_electricity_demand_annual"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="appliance_electricity_demand_unit"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="id_vehicle_at_home_profile"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="id_vehicle_distance_profile"/>
+    <tableColumn id="1" name="ID_Behavior"/>
+    <tableColumn id="2" name="id_people_at_home_profile"/>
+    <tableColumn id="3" name="target_temperature_at_home_max"/>
+    <tableColumn id="4" name="target_temperature_at_home_min"/>
+    <tableColumn id="5" name="target_temperature_not_at_home_max"/>
+    <tableColumn id="6" name="target_temperature_not_at_home_min"/>
+    <tableColumn id="7" name="temperature_unit"/>
+    <tableColumn id="8" name="id_hot_water_demand_profile"/>
+    <tableColumn id="9" name="hot_water_demand_annual"/>
+    <tableColumn id="10" name="hot_water_demand_unit"/>
+    <tableColumn id="11" name="id_appliance_electricity_demand_profile"/>
+    <tableColumn id="12" name="appliance_electricity_demand_annual"/>
+    <tableColumn id="13" name="appliance_electricity_demand_unit"/>
+    <tableColumn id="14" name="id_vehicle_at_home_profile"/>
+    <tableColumn id="15" name="id_vehicle_distance_profile"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -195,7 +819,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -230,7 +854,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -404,38 +1028,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.859375" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.2890625" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" customWidth="1"/>
+    <col min="5" max="5" width="38.2890625" customWidth="1"/>
     <col min="6" max="6" width="38" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="8" max="8" width="30.2890625" customWidth="1"/>
     <col min="9" max="9" width="27.5703125" customWidth="1"/>
     <col min="10" max="10" width="25.140625" customWidth="1"/>
     <col min="11" max="11" width="39.5703125" customWidth="1"/>
-    <col min="12" max="12" width="36.85546875" customWidth="1"/>
-    <col min="13" max="13" width="34.42578125" customWidth="1"/>
+    <col min="12" max="12" width="36.859375" customWidth="1"/>
+    <col min="13" max="13" width="34.4296875" customWidth="1"/>
     <col min="14" max="14" width="28.140625" customWidth="1"/>
     <col min="15" max="15" width="27.7109375" customWidth="1"/>
   </cols>
@@ -445,46 +1064,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
         <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -507,25 +1126,25 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>2700000</v>
+        <v>2000000</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="M2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -535,10 +1154,11 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>